--- a/Riesgo de Mercado.xlsx
+++ b/Riesgo de Mercado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osval\Documents\Personal\Actuaria\8° Semestre\Administración de Riesgos Financieros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B51D9B1-9187-4B4B-BA5C-2600ACE26EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC409939-CC6B-4E49-B753-F6C90B940AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t xml:space="preserve">Valor en Riesgo </t>
   </si>
@@ -397,6 +397,34 @@
 En el caso de este portafolio, podemos identificar los instrumentos que supusieron mayores pérdidas y aquellos que supusieron las menores pérdidas.
 Para el caso de las mayores pérdidas del portafolio, encontramos que los instrumentos de acciones fueron los más riesgosos. Por otro lado, los instrumentos menos riesgosos (dejando de lado aquellos que trabajan con volatilidad, cuyas medidas de riesgo nos resultaron en 0),fueron las divisas. Finalmente, podemos observar que tanto VaRes y CVaRes para todos los métodos resultaron en un mismo valor cada uno. Los valores del VaR y CVaR fueron muy similares para Delta Normal y Delta Gamma porque los ajustes de la segunda derivada fueron mínimos y no tuvieron tanto peso.Es importante realizar este análisis porque identificamos el instrumento más volatil del portafolio. </t>
   </si>
+  <si>
+    <t>ACCIONES Y DIVISAS 
+Con el método  Cholesky podemos observar que los títulos más riesgosos de estos instrumentos financieros fueron las acciones de Grupo Carso, mientras que las acciones menos riesgosas fueron aquellas de América Móvil.
+Por otro lado, para las divisas aún con una distribución normal podemos observar que el dólar fue el más riesgoso mientras que las libras fueron las más seguras. Finalmente, para las divisas por una distribución empírica, el dólar se mantiene como el tipo de cambio más riesgoso, mientras que esta vez el euro es el menos riesgoso.
+Con los Componentes Principales para acciones y divisas por Componentes Principales se obtuvieron medidas de riesgo más bajas en comparación con Cholesky, posiblemente debido al nivel de tolerancia escogido y las simulaciones por la semilla en particular.  Para las acciones, tanto asumiendo una distribucion normal como usando la distribucion empirica, las más riesgosas resultaron las de Grupo Carso contra las menos riesgosas, que fueron las de América Móvil. Para las divisas, por otro lado, fueron más riesgosos los dólares sobre los euros y las libras, mientras que los euros fueron las divisas menos riesgosas.</t>
+  </si>
+  <si>
+    <t>FUTUROS 
+En el caso de los futuros los resultados obtenidos de los VaRes y CVaRes fueron muy similares a los del metodo Delta Gamma y Delta Normal, donde se sigue cumpliendo lo visto en la teoría de que el CVaR es mayor igual que el VaR en los métodos Delta Normal, Delta Gamma Normal y Delta Gamma Cornish Fisher. Los futuros de tipo de cambio, el tipo de cambio de spot de la divisa es el de mayor riesgo y en el caso de los futuros IPC el factor con más riesgo es el Valor IPC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWAPS
+Para los swaps, las medidas de riesgo calculadas fueron muy similares. Sin embargo, sí es de interés hacer notar que en general las medidas calculadas bajo Componentes Principales fueron ligeramente menores a aquellas calculadas bajo Cholesky. Así como en los otros métodos, el factor de riesgo con mayor peso en las medidas de todos los swaps fue el de las tasas cupón, mientras que el que menos impactó fue el de la tasa de valor presente.
+</t>
+  </si>
+  <si>
+    <t>OPCIONES
+Los valores obtenidos fueron muy similares. Los valores calculados bajo Cholesky fueron ligeramente menores. Notamos que para el método Cholesky, la de menor riesgo fue con la Normal y para el caso del método Componentes Principales lo fue la Empírica. El PUT largo fue el de menor riesgo, siendo menor para cada uno de los métodos calculados. En todos los casos, los riesgos a la tasa spot fueron ligeramente mayores a los de la tasa TIIE. Vemos que se sigue cumpliendo con que riesgos del CVaR sean menores que los del VaR.Observamos que obtuvimos con estos métodos los valores más grandes; es decir, el menor riesgo tanto para los VaR y CVaR.</t>
+  </si>
+  <si>
+    <t>ANÁLISIS GENERAL
+En el caso de este portafolio, tanto para Cholesky empírico como normal, se puede observar que los instrumentos más riesgosos fueron aquellos relacionados a títulos de acciones, seguido de las divisas y finalmente teniendo los de tasa de interés, siendo los más seguros. Para el caso de Componentes Principales a diferencia de Cholesky, por este método las divisas fueron los instrumentos menos riesgosos, quizá debido a la simulación realizada y a la variación explicada topada por el nivel de tolerancia.</t>
+  </si>
+  <si>
+    <t>BONOS Y CETES 
+Para las simulaciones Monte Carlo, utilizando componentes prinicpales, se tiene un valor en riesgo y un valor en riesgo condicional, menor, a los simulados usando el método de Cholesky. Esto se debe a la cantidad de factores de riesgo por ejemplo para los cetes se tiene unicamente un factor de riesgo, por lo cual es comprensible que este se aproxime más a los VaRes y CVaRes calculados en las tareas anteriores. Mientras que, utilizando el método de componentes prinicpales, son varios factores de riesgo, por lo cual es comprensible que se obtenga un menor y menos aproximado VaR y CVaR.
+Con los bondes D hay una gran diferencia en comparación con los VaRes y CVaRes calculados en tareas pasadas. Esto se debe a que se trabajan con valores simulados, donde en el caso de Cholesky, se busca transformar dichos valores con cambios correlocionados en los factores de riesgo; mientras que con el método de componentes principales, se reduce el número de valores, lo cual afecta la aproximación del VaR y CVaR.</t>
+  </si>
 </sst>
 </file>
 
@@ -406,7 +434,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -452,13 +480,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -552,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1021,11 +1042,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1037,36 +1090,6 @@
       <left style="dashed">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="dashed">
         <color auto="1"/>
       </right>
@@ -1082,19 +1105,6 @@
       <left style="dashed">
         <color auto="1"/>
       </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1110,144 +1120,13 @@
       <left style="dashed">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="dashed">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1289,12 +1168,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1349,8 +1285,6 @@
     <xf numFmtId="165" fontId="4" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -1360,15 +1294,10 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1382,8 +1311,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1400,76 +1327,68 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1478,11 +1397,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1490,22 +1421,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1891,98 +1810,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="6" width="22.1796875" customWidth="1"/>
-    <col min="7" max="9" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" customWidth="1"/>
-    <col min="12" max="13" width="9.1796875" customWidth="1"/>
-    <col min="14" max="14" width="2.81640625" customWidth="1"/>
-    <col min="15" max="16" width="22.1796875" customWidth="1"/>
-    <col min="17" max="19" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="115.54296875" style="98" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="115.5703125" style="71" customWidth="1"/>
     <col min="25" max="25" width="212" customWidth="1"/>
+    <col min="26" max="26" width="193.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E1" s="127" t="s">
+    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="O1" s="127" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="O1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="42.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="121" t="s">
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="122"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124" t="s">
+      <c r="I2" s="112"/>
+      <c r="J2" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="O2" s="122" t="s">
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="O2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="122"/>
+      <c r="P2" s="115"/>
       <c r="Q2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="123" t="s">
+      <c r="R2" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="123"/>
-      <c r="T2" s="124" t="s">
+      <c r="S2" s="112"/>
+      <c r="T2" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-    </row>
-    <row r="3" spans="1:25" s="10" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+    </row>
+    <row r="3" spans="1:26" s="10" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1992,7 +1917,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="121"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2045,17 +1970,20 @@
       <c r="V3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="90" t="s">
+      <c r="W3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="100" t="s">
+      <c r="X3" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="112" t="s">
+      <c r="Y3" s="84" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z3" s="84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2074,7 +2002,7 @@
       <c r="F4" s="14">
         <v>-2955.1889999999999</v>
       </c>
-      <c r="G4" s="101">
+      <c r="G4" s="73">
         <v>-3468.902</v>
       </c>
       <c r="H4" s="14">
@@ -2083,10 +2011,21 @@
       <c r="I4" s="14">
         <v>-3468.902</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
+      <c r="J4" s="14">
+        <v>-3366.3620000000001</v>
+      </c>
+      <c r="K4" s="14">
+        <f>-2989.876</f>
+        <v>-2989.8760000000002</v>
+      </c>
+      <c r="L4" s="14">
+        <f>-3155.05141</f>
+        <v>-3155.05141</v>
+      </c>
+      <c r="M4" s="14">
+        <f>-2729.95597</f>
+        <v>-2729.95597</v>
+      </c>
       <c r="N4" s="18"/>
       <c r="O4" s="13">
         <v>-3435.1309999999999</v>
@@ -2094,7 +2033,7 @@
       <c r="P4" s="19">
         <v>-3644.4589999999998</v>
       </c>
-      <c r="Q4" s="101">
+      <c r="Q4" s="73">
         <v>-4089.0529999999999</v>
       </c>
       <c r="R4" s="14">
@@ -2103,18 +2042,29 @@
       <c r="S4" s="14">
         <v>-4089.0529999999999</v>
       </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="125" t="s">
+      <c r="T4" s="14">
+        <v>-4079.328</v>
+      </c>
+      <c r="U4" s="14">
+        <v>-3404.5018</v>
+      </c>
+      <c r="V4" s="14">
+        <v>-3664.40724</v>
+      </c>
+      <c r="W4" s="86">
+        <v>-3233.7879800000001</v>
+      </c>
+      <c r="X4" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="Y4" s="114" t="s">
+      <c r="Y4" s="99" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z4" s="99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2133,7 +2083,7 @@
       <c r="F5" s="21">
         <v>-3426.2179999999998</v>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="73">
         <v>-2864.3470000000002</v>
       </c>
       <c r="H5" s="21">
@@ -2142,10 +2092,21 @@
       <c r="I5" s="21">
         <v>2864.3470000000002</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
+      <c r="J5" s="21">
+        <v>-3003.183</v>
+      </c>
+      <c r="K5" s="21">
+        <f>-3020.4737</f>
+        <v>-3020.4737</v>
+      </c>
+      <c r="L5" s="21">
+        <f>-1101.78346</f>
+        <v>-1101.7834600000001</v>
+      </c>
+      <c r="M5" s="21">
+        <f>-1142.58417</f>
+        <v>-1142.5841700000001</v>
+      </c>
       <c r="N5" s="18"/>
       <c r="O5" s="20">
         <v>-4142.2879999999996</v>
@@ -2153,7 +2114,7 @@
       <c r="P5" s="19">
         <v>-3953.37</v>
       </c>
-      <c r="Q5" s="101">
+      <c r="Q5" s="73">
         <v>-3376.4189999999999</v>
       </c>
       <c r="R5" s="21">
@@ -2162,14 +2123,23 @@
       <c r="S5" s="21">
         <v>-3376.4189999999999</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="115"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T5" s="21">
+        <v>-3563.6439999999998</v>
+      </c>
+      <c r="U5" s="21">
+        <v>-3947.0792000000001</v>
+      </c>
+      <c r="V5" s="21">
+        <v>-1303.5485000000001</v>
+      </c>
+      <c r="W5" s="87">
+        <v>-1360.3166799999999</v>
+      </c>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2188,7 +2158,7 @@
       <c r="F6" s="24">
         <v>-3115.9209999999998</v>
       </c>
-      <c r="G6" s="101">
+      <c r="G6" s="73">
         <v>-2978.942</v>
       </c>
       <c r="H6" s="24">
@@ -2197,10 +2167,21 @@
       <c r="I6" s="24">
         <v>-2978.942</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
+      <c r="J6" s="24">
+        <v>-2922.8020000000001</v>
+      </c>
+      <c r="K6" s="24">
+        <f>-3064.2299</f>
+        <v>-3064.2298999999998</v>
+      </c>
+      <c r="L6" s="24">
+        <f>-952.86863</f>
+        <v>-952.86863000000005</v>
+      </c>
+      <c r="M6" s="24">
+        <f>-813.59861</f>
+        <v>-813.59861000000001</v>
+      </c>
       <c r="N6" s="18"/>
       <c r="O6" s="23">
         <v>-3111.1950000000002</v>
@@ -2208,7 +2189,7 @@
       <c r="P6" s="25">
         <v>-3342.5279999999998</v>
       </c>
-      <c r="Q6" s="101">
+      <c r="Q6" s="73">
         <v>-3511.5010000000002</v>
       </c>
       <c r="R6" s="24">
@@ -2217,14 +2198,23 @@
       <c r="S6" s="24">
         <v>-3511.5010000000002</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="115"/>
-    </row>
-    <row r="7" spans="1:25" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T6" s="24">
+        <v>-3439.614</v>
+      </c>
+      <c r="U6" s="24">
+        <v>-3222.2184000000002</v>
+      </c>
+      <c r="V6" s="24">
+        <v>-1116.15382</v>
+      </c>
+      <c r="W6" s="88">
+        <v>-958.80931999999996</v>
+      </c>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="100"/>
+    </row>
+    <row r="7" spans="1:26" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="26" t="s">
         <v>22</v>
       </c>
@@ -2237,7 +2227,7 @@
       <c r="F7" s="29">
         <v>-4888.826</v>
       </c>
-      <c r="G7" s="102">
+      <c r="G7" s="74">
         <v>-4824.4160000000002</v>
       </c>
       <c r="H7" s="29">
@@ -2246,18 +2236,29 @@
       <c r="I7" s="29">
         <v>-4824.4160000000002</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
+      <c r="J7" s="29">
+        <v>-5424.9709999999995</v>
+      </c>
+      <c r="K7" s="29">
+        <f>-5380.8196</f>
+        <v>-5380.8195999999998</v>
+      </c>
+      <c r="L7" s="29">
+        <f>-2983.65735</f>
+        <v>-2983.65735</v>
+      </c>
+      <c r="M7" s="29">
+        <f>-2620.14482</f>
+        <v>-2620.14482</v>
+      </c>
       <c r="N7" s="18"/>
       <c r="O7" s="28">
         <v>-5309.6329999999998</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="30">
         <v>-6001.6090000000004</v>
       </c>
-      <c r="Q7" s="102">
+      <c r="Q7" s="74">
         <v>-5686.8990000000003</v>
       </c>
       <c r="R7" s="29">
@@ -2266,14 +2267,23 @@
       <c r="S7" s="29">
         <v>-5686.8990000000003</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="115"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T7" s="29">
+        <v>-6333.7960000000003</v>
+      </c>
+      <c r="U7" s="29">
+        <v>-6261.5748999999996</v>
+      </c>
+      <c r="V7" s="29">
+        <v>-3502.2087799999999</v>
+      </c>
+      <c r="W7" s="89">
+        <v>-3122.03892</v>
+      </c>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +2302,7 @@
       <c r="F8" s="21">
         <v>-358.28030000000001</v>
       </c>
-      <c r="G8" s="101">
+      <c r="G8" s="73">
         <v>-357.35840000000002</v>
       </c>
       <c r="H8" s="21">
@@ -2301,10 +2311,21 @@
       <c r="I8" s="21">
         <v>-357.35840000000002</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
+      <c r="J8" s="21">
+        <v>-367.51639999999998</v>
+      </c>
+      <c r="K8" s="21">
+        <f>-341.7713</f>
+        <v>-341.7713</v>
+      </c>
+      <c r="L8" s="21">
+        <f>-66.88027</f>
+        <v>-66.880269999999996</v>
+      </c>
+      <c r="M8" s="21">
+        <f>-65.59278</f>
+        <v>-65.592780000000005</v>
+      </c>
       <c r="N8" s="18"/>
       <c r="O8" s="20">
         <v>-442.89010000000002</v>
@@ -2312,7 +2333,7 @@
       <c r="P8" s="19">
         <v>-586.39760000000001</v>
       </c>
-      <c r="Q8" s="101">
+      <c r="Q8" s="73">
         <v>-421.24489999999997</v>
       </c>
       <c r="R8" s="21">
@@ -2321,16 +2342,25 @@
       <c r="S8" s="21">
         <v>-421.24489999999997</v>
       </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="125" t="s">
+      <c r="T8" s="21">
+        <v>-437.80590000000001</v>
+      </c>
+      <c r="U8" s="21">
+        <v>-424.33139999999997</v>
+      </c>
+      <c r="V8" s="21">
+        <v>-78.650859999999994</v>
+      </c>
+      <c r="W8" s="87">
+        <v>-78.972189999999998</v>
+      </c>
+      <c r="X8" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" s="115"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="100"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2349,7 +2379,7 @@
       <c r="F9" s="21">
         <v>-156.64250000000001</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="73">
         <v>-157.18629999999999</v>
       </c>
       <c r="H9" s="21">
@@ -2358,10 +2388,21 @@
       <c r="I9" s="21">
         <v>-157.18629999999999</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
+      <c r="J9" s="21">
+        <v>-156.5583</v>
+      </c>
+      <c r="K9" s="21">
+        <f>-148.4206</f>
+        <v>-148.42060000000001</v>
+      </c>
+      <c r="L9" s="21">
+        <f>-22.60264</f>
+        <v>-22.602640000000001</v>
+      </c>
+      <c r="M9" s="21">
+        <f>-20.60366</f>
+        <v>-20.603660000000001</v>
+      </c>
       <c r="N9" s="18"/>
       <c r="O9" s="20">
         <v>-189.9811</v>
@@ -2369,7 +2410,7 @@
       <c r="P9" s="19">
         <v>-215.40049999999999</v>
       </c>
-      <c r="Q9" s="101">
+      <c r="Q9" s="73">
         <v>-185.28720000000001</v>
       </c>
       <c r="R9" s="21">
@@ -2378,14 +2419,23 @@
       <c r="S9" s="21">
         <v>-185.28720000000001</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="115"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T9" s="21">
+        <v>-184.72290000000001</v>
+      </c>
+      <c r="U9" s="21">
+        <v>-176.87520000000001</v>
+      </c>
+      <c r="V9" s="21">
+        <v>-26.841000000000001</v>
+      </c>
+      <c r="W9" s="87">
+        <v>-27.05864</v>
+      </c>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="100"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2404,7 +2454,7 @@
       <c r="F10" s="24">
         <v>-134.63550000000001</v>
       </c>
-      <c r="G10" s="101">
+      <c r="G10" s="73">
         <v>-159.90170000000001</v>
       </c>
       <c r="H10" s="24">
@@ -2413,10 +2463,21 @@
       <c r="I10" s="24">
         <v>-159.90170000000001</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
+      <c r="J10" s="24">
+        <v>-156.27940000000001</v>
+      </c>
+      <c r="K10" s="24">
+        <f>-151.1954</f>
+        <v>-151.19540000000001</v>
+      </c>
+      <c r="L10" s="24">
+        <f>-22.05066</f>
+        <v>-22.050660000000001</v>
+      </c>
+      <c r="M10" s="24">
+        <f>-21.6463</f>
+        <v>-21.6463</v>
+      </c>
       <c r="N10" s="18"/>
       <c r="O10" s="23">
         <v>-179.94329999999999</v>
@@ -2424,7 +2485,7 @@
       <c r="P10" s="25">
         <v>-162.70230000000001</v>
       </c>
-      <c r="Q10" s="101">
+      <c r="Q10" s="73">
         <v>-188.488</v>
       </c>
       <c r="R10" s="24">
@@ -2433,18 +2494,27 @@
       <c r="S10" s="24">
         <v>-188.488</v>
       </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="115"/>
-    </row>
-    <row r="11" spans="1:25" ht="31.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T10" s="24">
+        <v>-185.0855</v>
+      </c>
+      <c r="U10" s="24">
+        <v>-174.5855</v>
+      </c>
+      <c r="V10" s="24">
+        <v>-25.65005</v>
+      </c>
+      <c r="W10" s="88">
+        <v>-27.314419999999998</v>
+      </c>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="100"/>
+      <c r="Z10" s="100"/>
+    </row>
+    <row r="11" spans="1:26" ht="31.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="31">
         <v>29764.2837</v>
       </c>
       <c r="E11" s="28">
@@ -2453,7 +2523,7 @@
       <c r="F11" s="29">
         <v>-380.36110000000002</v>
       </c>
-      <c r="G11" s="102">
+      <c r="G11" s="74">
         <v>-376.8845</v>
       </c>
       <c r="H11" s="29">
@@ -2462,18 +2532,29 @@
       <c r="I11" s="29">
         <v>-376.8845</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
+      <c r="J11" s="29">
+        <v>-439.12099999999998</v>
+      </c>
+      <c r="K11" s="29">
+        <f>-420.9504</f>
+        <v>-420.9504</v>
+      </c>
+      <c r="L11" s="29">
+        <f>-70.19241</f>
+        <v>-70.192409999999995</v>
+      </c>
+      <c r="M11" s="29">
+        <f>-68.52375</f>
+        <v>-68.523750000000007</v>
+      </c>
       <c r="N11" s="18"/>
       <c r="O11" s="28">
         <v>-423.17599999999999</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P11" s="30">
         <v>-476.78500000000003</v>
       </c>
-      <c r="Q11" s="102">
+      <c r="Q11" s="74">
         <v>-444.26190000000003</v>
       </c>
       <c r="R11" s="29">
@@ -2482,14 +2563,23 @@
       <c r="S11" s="29">
         <v>-444.26190000000003</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="126"/>
-      <c r="Y11" s="116"/>
-    </row>
-    <row r="12" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T11" s="29">
+        <v>-525.8931</v>
+      </c>
+      <c r="U11" s="29">
+        <v>-509.27440000000001</v>
+      </c>
+      <c r="V11" s="29">
+        <v>-82.467879999999994</v>
+      </c>
+      <c r="W11" s="89">
+        <v>-82.416510000000002</v>
+      </c>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2508,7 +2598,7 @@
       <c r="F12" s="21">
         <v>-0.63187179999999998</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="73">
         <v>-10.189719999999999</v>
       </c>
       <c r="H12" s="21">
@@ -2517,10 +2607,10 @@
       <c r="I12" s="21">
         <v>-63.710160000000002</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="18"/>
       <c r="O12" s="20">
         <v>-1.394495</v>
@@ -2528,7 +2618,7 @@
       <c r="P12" s="19">
         <v>-1.054235</v>
       </c>
-      <c r="Q12" s="101">
+      <c r="Q12" s="73">
         <v>-11.463900000000001</v>
       </c>
       <c r="R12" s="21">
@@ -2537,18 +2627,21 @@
       <c r="S12" s="21">
         <v>-63.90746</v>
       </c>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="125" t="s">
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="Y12" s="114" t="s">
+      <c r="Y12" s="99" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z12" s="99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2567,13 +2660,13 @@
       <c r="F13" s="21">
         <v>-23.818619999999999</v>
       </c>
-      <c r="G13" s="101"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="18"/>
       <c r="O13" s="20">
         <v>-23.483370000000001</v>
@@ -2581,17 +2674,18 @@
       <c r="P13" s="19">
         <v>-39.40616</v>
       </c>
-      <c r="Q13" s="101"/>
+      <c r="Q13" s="73"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="126"/>
-      <c r="Y13" s="115"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="100"/>
+      <c r="Z13" s="100"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2601,14 +2695,14 @@
       <c r="C14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="20">
         <v>-5.2154309999999997</v>
       </c>
       <c r="F14" s="21">
         <v>-9.3915459999999999</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="73">
         <v>-392.82839999999999</v>
       </c>
       <c r="H14" s="21">
@@ -2617,10 +2711,21 @@
       <c r="I14" s="21">
         <v>-352.18950000000001</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
+      <c r="J14" s="21">
+        <v>-3.249485</v>
+      </c>
+      <c r="K14" s="21">
+        <f>-5.4632319</f>
+        <v>-5.4632319000000003</v>
+      </c>
+      <c r="L14" s="21">
+        <f>-2.8912244</f>
+        <v>-2.8912244</v>
+      </c>
+      <c r="M14" s="21">
+        <f>-5.1628865</f>
+        <v>-5.1628864999999999</v>
+      </c>
       <c r="N14" s="18"/>
       <c r="O14" s="20">
         <v>-8.2773459999999996</v>
@@ -2628,7 +2733,7 @@
       <c r="P14" s="19">
         <v>-10.218519000000001</v>
       </c>
-      <c r="Q14" s="101">
+      <c r="Q14" s="73">
         <v>-463.05610000000001</v>
       </c>
       <c r="R14" s="21">
@@ -2637,14 +2742,23 @@
       <c r="S14" s="21">
         <v>-415.15199999999999</v>
       </c>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="115"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T14" s="21">
+        <v>-3.9573429999999998</v>
+      </c>
+      <c r="U14" s="21">
+        <v>-7.9268704000000003</v>
+      </c>
+      <c r="V14" s="21">
+        <v>-3.5101721000000001</v>
+      </c>
+      <c r="W14" s="87">
+        <v>-7.9982695000000001</v>
+      </c>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="100"/>
+    </row>
+    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2654,14 +2768,14 @@
       <c r="C15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="20">
         <v>-1.312346</v>
       </c>
       <c r="F15" s="21">
         <v>-2.555974</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="73">
         <v>-392.82839999999999</v>
       </c>
       <c r="H15" s="21">
@@ -2670,10 +2784,21 @@
       <c r="I15" s="21">
         <v>-188.79040000000001</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
+      <c r="J15" s="21">
+        <v>-3.6831269999999998</v>
+      </c>
+      <c r="K15" s="21">
+        <f>-3.2261801</f>
+        <v>-3.2261801000000001</v>
+      </c>
+      <c r="L15" s="21">
+        <f>-1.5911557</f>
+        <v>-1.5911557000000001</v>
+      </c>
+      <c r="M15" s="21">
+        <f>-2.01455</f>
+        <v>-2.0145499999999998</v>
+      </c>
       <c r="N15" s="18"/>
       <c r="O15" s="20">
         <v>-2.3943430000000001</v>
@@ -2681,7 +2806,7 @@
       <c r="P15" s="19">
         <v>-3.7675209999999999</v>
       </c>
-      <c r="Q15" s="101">
+      <c r="Q15" s="73">
         <v>-463.05610000000001</v>
       </c>
       <c r="R15" s="21">
@@ -2690,14 +2815,23 @@
       <c r="S15" s="21">
         <v>-222.44380000000001</v>
       </c>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="126"/>
-      <c r="Y15" s="115"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T15" s="21">
+        <v>-4.5875459999999997</v>
+      </c>
+      <c r="U15" s="21">
+        <v>-3.7113056000000002</v>
+      </c>
+      <c r="V15" s="21">
+        <v>-2.0110063999999999</v>
+      </c>
+      <c r="W15" s="87">
+        <v>-2.6972133999999999</v>
+      </c>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="100"/>
+      <c r="Z15" s="100"/>
+    </row>
+    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2707,14 +2841,14 @@
       <c r="C16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="20">
         <v>-1.6967349999999999E-2</v>
       </c>
       <c r="F16" s="21">
         <v>-0.46734004000000001</v>
       </c>
-      <c r="G16" s="101">
+      <c r="G16" s="73">
         <v>-376.90719999999999</v>
       </c>
       <c r="H16" s="21">
@@ -2723,10 +2857,20 @@
       <c r="I16" s="21">
         <v>-188.79040000000001</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
+      <c r="J16" s="21">
+        <v>-0.53188329999999995</v>
+      </c>
+      <c r="K16" s="21">
+        <v>-0.67618750000000005</v>
+      </c>
+      <c r="L16" s="21">
+        <f>-0.1191425</f>
+        <v>-0.1191425</v>
+      </c>
+      <c r="M16" s="21">
+        <f>-0.2722541</f>
+        <v>-0.2722541</v>
+      </c>
       <c r="N16" s="18"/>
       <c r="O16" s="20">
         <v>-0.409804</v>
@@ -2734,7 +2878,7 @@
       <c r="P16" s="19">
         <v>-0.90397260000000002</v>
       </c>
-      <c r="Q16" s="101">
+      <c r="Q16" s="73">
         <v>-444.2885</v>
       </c>
       <c r="R16" s="21">
@@ -2743,63 +2887,92 @@
       <c r="S16" s="21">
         <v>-222.44380000000001</v>
       </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="115"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C17" s="35" t="s">
+      <c r="T16" s="21">
+        <v>0.77173890000000001</v>
+      </c>
+      <c r="U16" s="21">
+        <v>0.83219710000000002</v>
+      </c>
+      <c r="V16" s="21">
+        <v>-0.2705494</v>
+      </c>
+      <c r="W16" s="87">
+        <v>-0.51744029999999996</v>
+      </c>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="100"/>
+      <c r="Z16" s="100"/>
+    </row>
+    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="34">
         <v>-942.95129999999995</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="35">
         <v>-2.7731370000000002</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="36">
         <v>-8.7770399999999995</v>
       </c>
-      <c r="G17" s="103">
+      <c r="G17" s="75">
         <v>-476.88580000000002</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="36">
         <v>-188.4538</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="36">
         <v>-188.79040000000001</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
+      <c r="J17" s="36">
+        <v>-5.4608020000000002</v>
+      </c>
+      <c r="K17" s="36">
+        <f>-5.5562762</f>
+        <v>-5.5562762000000001</v>
+      </c>
+      <c r="L17" s="36">
+        <f>-4.2765534</f>
+        <v>-4.2765534000000001</v>
+      </c>
+      <c r="M17" s="36">
+        <f>-5.8165606</f>
+        <v>-5.8165605999999999</v>
+      </c>
       <c r="N17" s="18"/>
-      <c r="O17" s="37">
+      <c r="O17" s="35">
         <v>-6.209117</v>
       </c>
-      <c r="P17" s="41">
+      <c r="P17" s="37">
         <v>-10.245926000000001</v>
       </c>
-      <c r="Q17" s="103">
+      <c r="Q17" s="75">
         <v>-567.54010000000005</v>
       </c>
-      <c r="R17" s="38">
+      <c r="R17" s="36">
         <v>-222.1446</v>
       </c>
-      <c r="S17" s="38">
+      <c r="S17" s="36">
         <v>-222.44380000000001</v>
       </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="126"/>
-      <c r="Y17" s="115"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T17" s="36">
+        <v>-6.6714789999999997</v>
+      </c>
+      <c r="U17" s="36">
+        <v>-8.1566490999999992</v>
+      </c>
+      <c r="V17" s="36">
+        <v>-5.0802503000000003</v>
+      </c>
+      <c r="W17" s="90">
+        <v>-8.6522076000000006</v>
+      </c>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+    </row>
+    <row r="18" spans="1:26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="26" t="s">
         <v>22</v>
       </c>
@@ -2812,31 +2985,32 @@
       <c r="F18" s="29">
         <v>-16.858029999999999</v>
       </c>
-      <c r="G18" s="102"/>
+      <c r="G18" s="74"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="18"/>
       <c r="O18" s="28">
         <v>-21.177240000000001</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="30">
         <v>-36.267429999999997</v>
       </c>
-      <c r="Q18" s="102"/>
+      <c r="Q18" s="74"/>
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="126"/>
-      <c r="Y18" s="117"/>
-    </row>
-    <row r="19" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+    </row>
+    <row r="19" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2846,14 +3020,14 @@
       <c r="C19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="20">
         <v>-21.140470000000001</v>
       </c>
       <c r="F19" s="21">
         <v>-23.872499999999999</v>
       </c>
-      <c r="G19" s="104">
+      <c r="G19" s="76">
         <v>-23.858350000000002</v>
       </c>
       <c r="H19" s="21">
@@ -2862,10 +3036,21 @@
       <c r="I19" s="21">
         <v>-23.858350000000002</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
+      <c r="J19" s="21">
+        <v>-56.18233</v>
+      </c>
+      <c r="K19" s="21">
+        <f>-48.87832487</f>
+        <v>-48.87832487</v>
+      </c>
+      <c r="L19" s="21">
+        <f>-4.451312519</f>
+        <v>-4.451312519</v>
+      </c>
+      <c r="M19" s="21">
+        <f>-4.36571548</f>
+        <v>-4.3657154800000004</v>
+      </c>
       <c r="N19" s="18"/>
       <c r="O19" s="20">
         <v>-29.510110000000001</v>
@@ -2873,7 +3058,7 @@
       <c r="P19" s="19">
         <v>-39.072130000000001</v>
       </c>
-      <c r="Q19" s="104">
+      <c r="Q19" s="76">
         <v>-28.123609999999999</v>
       </c>
       <c r="R19" s="21">
@@ -2882,18 +3067,29 @@
       <c r="S19" s="21">
         <v>-28.123609999999999</v>
       </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="125" t="s">
+      <c r="T19" s="21">
+        <v>-67.367059999999995</v>
+      </c>
+      <c r="U19" s="21">
+        <v>-57.42397544</v>
+      </c>
+      <c r="V19" s="21">
+        <v>-5.2335391409999996</v>
+      </c>
+      <c r="W19" s="87">
+        <v>-5.2548520759999997</v>
+      </c>
+      <c r="X19" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="Y19" s="118" t="s">
+      <c r="Y19" s="103" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z19" s="103" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2903,14 +3099,14 @@
       <c r="C20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="20">
         <v>-1.3086772E-2</v>
       </c>
       <c r="F20" s="21">
         <v>-6.0947939999999997E-3</v>
       </c>
-      <c r="G20" s="104">
+      <c r="G20" s="76">
         <v>-8.9962540000000004E-3</v>
       </c>
       <c r="H20" s="21">
@@ -2919,10 +3115,21 @@
       <c r="I20" s="21">
         <v>-8.9962540000000004E-3</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
+      <c r="J20" s="21">
+        <v>-3.6548549999999999E-2</v>
+      </c>
+      <c r="K20" s="21">
+        <f>-0.04216346</f>
+        <v>-4.216346E-2</v>
+      </c>
+      <c r="L20" s="21">
+        <f>-0.003236794</f>
+        <v>-3.2367939999999999E-3</v>
+      </c>
+      <c r="M20" s="21">
+        <f>-0.00208772</f>
+        <v>-2.0877199999999999E-3</v>
+      </c>
       <c r="N20" s="18"/>
       <c r="O20" s="20">
         <v>-1.5832760000000001E-2</v>
@@ -2930,7 +3137,7 @@
       <c r="P20" s="19">
         <v>-1.120875E-2</v>
       </c>
-      <c r="Q20" s="104">
+      <c r="Q20" s="76">
         <v>-1.0604555E-2</v>
       </c>
       <c r="R20" s="21">
@@ -2939,14 +3146,23 @@
       <c r="S20" s="21">
         <v>-1.0604554E-2</v>
       </c>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="91"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="119"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T20" s="21">
+        <v>-4.3522430000000001E-2</v>
+      </c>
+      <c r="U20" s="21">
+        <v>-5.1704989999999999E-2</v>
+      </c>
+      <c r="V20" s="21">
+        <v>-3.782363E-3</v>
+      </c>
+      <c r="W20" s="87">
+        <v>-2.6386320000000001E-3</v>
+      </c>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+    </row>
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2956,14 +3172,14 @@
       <c r="C21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="20">
         <v>-6.9658250000000001E-3</v>
       </c>
       <c r="F21" s="21">
         <v>-5.0266119999999997E-3</v>
       </c>
-      <c r="G21" s="104">
+      <c r="G21" s="76">
         <v>-3.9089949999999998E-2</v>
       </c>
       <c r="H21" s="21">
@@ -2972,10 +3188,21 @@
       <c r="I21" s="21">
         <v>-3.9089970000000002E-2</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="17"/>
+      <c r="J21" s="21">
+        <v>-6.0248169999999997E-2</v>
+      </c>
+      <c r="K21" s="21">
+        <f>-0.06634789</f>
+        <v>-6.6347890000000007E-2</v>
+      </c>
+      <c r="L21" s="21">
+        <f>-0.033934844</f>
+        <v>-3.3934843999999999E-2</v>
+      </c>
+      <c r="M21" s="21">
+        <f>-0.02178657</f>
+        <v>-2.1786570000000002E-2</v>
+      </c>
       <c r="N21" s="18"/>
       <c r="O21" s="20">
         <v>-1.2655965E-2</v>
@@ -2983,7 +3210,7 @@
       <c r="P21" s="19">
         <v>-6.8846050000000002E-3</v>
       </c>
-      <c r="Q21" s="104">
+      <c r="Q21" s="76">
         <v>-4.6078229999999998E-2</v>
       </c>
       <c r="R21" s="21">
@@ -2992,63 +3219,92 @@
       <c r="S21" s="21">
         <v>-4.6078250000000001E-2</v>
       </c>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="119"/>
-    </row>
-    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="35" t="s">
+      <c r="T21" s="21">
+        <v>-7.050584E-2</v>
+      </c>
+      <c r="U21" s="21">
+        <v>-7.5822639999999997E-2</v>
+      </c>
+      <c r="V21" s="21">
+        <v>-4.0256251E-2</v>
+      </c>
+      <c r="W21" s="87">
+        <v>-2.7769645999999999E-2</v>
+      </c>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="38">
         <v>-85.620050000000006</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="39">
         <v>-21.133040000000001</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="40">
         <v>-23.87276</v>
       </c>
-      <c r="G22" s="105">
+      <c r="G22" s="77">
         <v>-23.859179999999999</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="40">
         <v>-23.859179999999999</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="40">
         <v>-23.859179999999999</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="47"/>
+      <c r="J22" s="40">
+        <v>-56.196959999999997</v>
+      </c>
+      <c r="K22" s="40">
+        <f>-48.87558499</f>
+        <v>-48.87558499</v>
+      </c>
+      <c r="L22" s="40">
+        <f>-4.447525015</f>
+        <v>-4.4475250150000001</v>
+      </c>
+      <c r="M22" s="40">
+        <f>-4.36589996</f>
+        <v>-4.3658999600000001</v>
+      </c>
       <c r="N22" s="18"/>
-      <c r="O22" s="43">
+      <c r="O22" s="39">
         <v>-29.512450000000001</v>
       </c>
-      <c r="P22" s="48">
+      <c r="P22" s="41">
         <v>-39.073970000000003</v>
       </c>
-      <c r="Q22" s="105">
+      <c r="Q22" s="77">
         <v>-28.124590000000001</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="40">
         <v>-28.124590000000001</v>
       </c>
-      <c r="S22" s="44">
+      <c r="S22" s="40">
         <v>-28.124590000000001</v>
       </c>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="119"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T22" s="40">
+        <v>-67.366399999999999</v>
+      </c>
+      <c r="U22" s="40">
+        <v>-57.423330919999998</v>
+      </c>
+      <c r="V22" s="40">
+        <v>-5.232314401</v>
+      </c>
+      <c r="W22" s="91">
+        <v>-5.2565531019999998</v>
+      </c>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+    </row>
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3058,14 +3314,14 @@
       <c r="C23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="20">
         <v>-48533.45</v>
       </c>
       <c r="F23" s="21">
         <v>-56598.17</v>
       </c>
-      <c r="G23" s="104">
+      <c r="G23" s="76">
         <v>-51013.7</v>
       </c>
       <c r="H23" s="21">
@@ -3074,10 +3330,21 @@
       <c r="I23" s="21">
         <v>-51013.7</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="17"/>
+      <c r="J23" s="21">
+        <v>-94957.16</v>
+      </c>
+      <c r="K23" s="21">
+        <f>-109545.622</f>
+        <v>-109545.622</v>
+      </c>
+      <c r="L23" s="21">
+        <f>-30137.8249</f>
+        <v>-30137.8249</v>
+      </c>
+      <c r="M23" s="21">
+        <f>-32354.2</f>
+        <v>-32354.2</v>
+      </c>
       <c r="N23" s="18"/>
       <c r="O23" s="20">
         <v>-54038.47</v>
@@ -3085,7 +3352,7 @@
       <c r="P23" s="19">
         <v>-59745.58</v>
       </c>
-      <c r="Q23" s="104">
+      <c r="Q23" s="76">
         <v>-60133.64</v>
       </c>
       <c r="R23" s="21">
@@ -3094,16 +3361,25 @@
       <c r="S23" s="21">
         <v>-60133.64</v>
       </c>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="125" t="s">
+      <c r="T23" s="21">
+        <v>-113076.51</v>
+      </c>
+      <c r="U23" s="21">
+        <v>-134336.51199999999</v>
+      </c>
+      <c r="V23" s="21">
+        <v>-35765.766199999998</v>
+      </c>
+      <c r="W23" s="87">
+        <v>-36633.407599999999</v>
+      </c>
+      <c r="X23" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="Y23" s="119"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+    </row>
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3113,14 +3389,14 @@
       <c r="C24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="20">
         <v>-713.04219999999998</v>
       </c>
       <c r="F24" s="21">
         <v>-407.68389999999999</v>
       </c>
-      <c r="G24" s="104">
+      <c r="G24" s="76">
         <v>-489.72910000000002</v>
       </c>
       <c r="H24" s="21">
@@ -3129,10 +3405,21 @@
       <c r="I24" s="21">
         <v>-489.71870000000001</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="17"/>
+      <c r="J24" s="21">
+        <v>-938.96180000000004</v>
+      </c>
+      <c r="K24" s="21">
+        <f>-1083.153</f>
+        <v>-1083.153</v>
+      </c>
+      <c r="L24" s="21">
+        <f>-183.5903</f>
+        <v>-183.59030000000001</v>
+      </c>
+      <c r="M24" s="21">
+        <f>-180.9219</f>
+        <v>-180.92189999999999</v>
+      </c>
       <c r="N24" s="18"/>
       <c r="O24" s="20">
         <v>-812.85630000000003</v>
@@ -3140,7 +3427,7 @@
       <c r="P24" s="19">
         <v>-487.00990000000002</v>
       </c>
-      <c r="Q24" s="104">
+      <c r="Q24" s="76">
         <v>-577.28020000000004</v>
       </c>
       <c r="R24" s="21">
@@ -3149,14 +3436,23 @@
       <c r="S24" s="21">
         <v>-577.27089999999998</v>
       </c>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="119"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T24" s="21">
+        <v>-1118.0387000000001</v>
+      </c>
+      <c r="U24" s="21">
+        <v>-1328.096</v>
+      </c>
+      <c r="V24" s="21">
+        <v>-215.99539999999999</v>
+      </c>
+      <c r="W24" s="87">
+        <v>-221.17869999999999</v>
+      </c>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+    </row>
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3167,13 +3463,13 @@
         <v>44</v>
       </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="49">
+      <c r="E25" s="42">
         <v>0</v>
       </c>
       <c r="F25" s="16">
         <v>0</v>
       </c>
-      <c r="G25" s="101">
+      <c r="G25" s="73">
         <v>0</v>
       </c>
       <c r="H25" s="16">
@@ -3182,18 +3478,26 @@
       <c r="I25" s="16">
         <v>0</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="17"/>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="M25" s="16">
+        <v>0</v>
+      </c>
       <c r="N25" s="18"/>
-      <c r="O25" s="49">
+      <c r="O25" s="42">
         <v>0</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
       </c>
-      <c r="Q25" s="101">
+      <c r="Q25" s="73">
         <v>0</v>
       </c>
       <c r="R25" s="16">
@@ -3202,63 +3506,92 @@
       <c r="S25" s="16">
         <v>0</v>
       </c>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="126"/>
-      <c r="Y25" s="119"/>
-    </row>
-    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="35" t="s">
+      <c r="T25" s="16">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16">
+        <v>0</v>
+      </c>
+      <c r="V25" s="16">
+        <v>0</v>
+      </c>
+      <c r="W25" s="17">
+        <v>0</v>
+      </c>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="38">
         <v>-342420.5</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="41">
         <v>-48533.45</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="41">
         <v>-56586.15</v>
       </c>
-      <c r="G26" s="105">
+      <c r="G26" s="77">
         <v>-51116.04</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="41">
         <v>-51116.04</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="41">
         <v>-51116.04</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47"/>
+      <c r="J26" s="41">
+        <v>-95896.12</v>
+      </c>
+      <c r="K26" s="41">
+        <f>-110628.775</f>
+        <v>-110628.77499999999</v>
+      </c>
+      <c r="L26" s="41">
+        <f>-30296.7489</f>
+        <v>-30296.748899999999</v>
+      </c>
+      <c r="M26" s="41">
+        <f>-32396.0884</f>
+        <v>-32396.088400000001</v>
+      </c>
       <c r="N26" s="18"/>
-      <c r="O26" s="50">
+      <c r="O26" s="43">
         <v>-54158.33</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="40">
         <v>-59830</v>
       </c>
-      <c r="Q26" s="105">
+      <c r="Q26" s="77">
         <v>-60110.45</v>
       </c>
-      <c r="R26" s="48">
+      <c r="R26" s="41">
         <v>-60110.45</v>
       </c>
-      <c r="S26" s="48">
+      <c r="S26" s="41">
         <v>-60110.45</v>
       </c>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="120"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T26" s="41">
+        <v>-114194.55</v>
+      </c>
+      <c r="U26" s="41">
+        <v>-135664.609</v>
+      </c>
+      <c r="V26" s="41">
+        <v>-35853.005400000002</v>
+      </c>
+      <c r="W26" s="92">
+        <v>-36707.1702</v>
+      </c>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
+    </row>
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3268,14 +3601,14 @@
       <c r="C27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="20">
         <v>-75.952179999999998</v>
       </c>
       <c r="F27" s="21">
         <v>-41.931370000000001</v>
       </c>
-      <c r="G27" s="101">
+      <c r="G27" s="73">
         <v>-88.464219999999997</v>
       </c>
       <c r="H27" s="21">
@@ -3284,10 +3617,21 @@
       <c r="I27" s="21">
         <v>-41620.244019999998</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="17"/>
+      <c r="J27" s="21">
+        <v>-57.43582</v>
+      </c>
+      <c r="K27" s="21">
+        <f>-47.92792</f>
+        <v>-47.92792</v>
+      </c>
+      <c r="L27" s="21">
+        <f>-107.17807</f>
+        <v>-107.17807000000001</v>
+      </c>
+      <c r="M27" s="21">
+        <f>-74.59878</f>
+        <v>-74.598780000000005</v>
+      </c>
       <c r="N27" s="18"/>
       <c r="O27" s="20">
         <v>-140.0641</v>
@@ -3295,7 +3639,7 @@
       <c r="P27" s="19">
         <v>-67.765889999999999</v>
       </c>
-      <c r="Q27" s="101">
+      <c r="Q27" s="73">
         <v>-104.92092</v>
       </c>
       <c r="R27" s="21">
@@ -3304,18 +3648,29 @@
       <c r="S27" s="21">
         <v>-106.47580000000001</v>
       </c>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="125" t="s">
+      <c r="T27" s="21">
+        <v>-69.379019999999997</v>
+      </c>
+      <c r="U27" s="21">
+        <v>-56.006900000000002</v>
+      </c>
+      <c r="V27" s="21">
+        <v>-126.17755</v>
+      </c>
+      <c r="W27" s="87">
+        <v>-91.135099999999994</v>
+      </c>
+      <c r="X27" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="Y27" s="114" t="s">
+      <c r="Y27" s="99" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z27" s="99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -3325,14 +3680,14 @@
       <c r="C28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="20">
         <v>-33229.870000000003</v>
       </c>
       <c r="F28" s="21">
         <v>-18808.310000000001</v>
       </c>
-      <c r="G28" s="101">
+      <c r="G28" s="73">
         <v>-42553.161659999998</v>
       </c>
       <c r="H28" s="21">
@@ -3341,10 +3696,21 @@
       <c r="I28" s="21">
         <v>-90.327529999999996</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
+      <c r="J28" s="21">
+        <v>-20909.400000000001</v>
+      </c>
+      <c r="K28" s="21">
+        <f>-17858.97024</f>
+        <v>-17858.970239999999</v>
+      </c>
+      <c r="L28" s="21">
+        <f>-40285.8062</f>
+        <v>-40285.806199999999</v>
+      </c>
+      <c r="M28" s="21">
+        <f>-27865.90931</f>
+        <v>-27865.909309999999</v>
+      </c>
       <c r="N28" s="18"/>
       <c r="O28" s="20">
         <v>-49063.95</v>
@@ -3352,7 +3718,7 @@
       <c r="P28" s="19">
         <v>-26560.6</v>
       </c>
-      <c r="Q28" s="101">
+      <c r="Q28" s="73">
         <v>-50161.22236</v>
       </c>
       <c r="R28" s="21">
@@ -3361,63 +3727,92 @@
       <c r="S28" s="21">
         <v>-49060.881300000001</v>
       </c>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="115"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C29" s="35" t="s">
+      <c r="T28" s="21">
+        <v>-25206.47</v>
+      </c>
+      <c r="U28" s="21">
+        <v>-21515.113450000001</v>
+      </c>
+      <c r="V28" s="21">
+        <v>-46943.61707</v>
+      </c>
+      <c r="W28" s="87">
+        <v>-34001.022210000003</v>
+      </c>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+    </row>
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C29" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="44">
         <v>-30707.58</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="45">
         <v>-33313.64</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="46">
         <v>-18799.54</v>
       </c>
-      <c r="G29" s="103">
+      <c r="G29" s="75">
         <v>-42621.655720000002</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="46">
         <v>-41942.61</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="46">
         <v>-41942.61</v>
       </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="40"/>
+      <c r="J29" s="46">
+        <v>-20947.580000000002</v>
+      </c>
+      <c r="K29" s="46">
+        <f>-17921.43413</f>
+        <v>-17921.434130000001</v>
+      </c>
+      <c r="L29" s="46">
+        <f>-40370.55223</f>
+        <v>-40370.552230000001</v>
+      </c>
+      <c r="M29" s="46">
+        <f>-27861.93001</f>
+        <v>-27861.93001</v>
+      </c>
       <c r="N29" s="18"/>
-      <c r="O29" s="52">
+      <c r="O29" s="45">
         <v>-49104.84</v>
       </c>
-      <c r="P29" s="54">
+      <c r="P29" s="47">
         <v>-26586.06</v>
       </c>
-      <c r="Q29" s="103">
+      <c r="Q29" s="75">
         <v>-50249.138659999997</v>
       </c>
-      <c r="R29" s="53">
+      <c r="R29" s="46">
         <v>-48882.86</v>
       </c>
-      <c r="S29" s="53">
+      <c r="S29" s="46">
         <v>-48882.86</v>
       </c>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="126"/>
-      <c r="Y29" s="115"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T29" s="46">
+        <v>-25262.1</v>
+      </c>
+      <c r="U29" s="46">
+        <v>-21565.921979999999</v>
+      </c>
+      <c r="V29" s="46">
+        <v>-47097.891770000002</v>
+      </c>
+      <c r="W29" s="93">
+        <v>-34080.828280000002</v>
+      </c>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
+    </row>
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -3427,14 +3822,14 @@
       <c r="C30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="20">
         <v>-92.454310000000007</v>
       </c>
       <c r="F30" s="21">
         <v>-134.79706999999999</v>
       </c>
-      <c r="G30" s="101">
+      <c r="G30" s="73">
         <v>-66.637249999999995</v>
       </c>
       <c r="H30" s="21">
@@ -3443,10 +3838,21 @@
       <c r="I30" s="21">
         <v>-50.112389999999998</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="17"/>
+      <c r="J30" s="21">
+        <v>-32.710619999999999</v>
+      </c>
+      <c r="K30" s="21">
+        <f>-31.42774</f>
+        <v>-31.42774</v>
+      </c>
+      <c r="L30" s="21">
+        <f>-49.12881</f>
+        <v>-49.128810000000001</v>
+      </c>
+      <c r="M30" s="21">
+        <f>-31.92441</f>
+        <v>-31.924410000000002</v>
+      </c>
       <c r="N30" s="18"/>
       <c r="O30" s="20">
         <v>-139.22219999999999</v>
@@ -3454,7 +3860,7 @@
       <c r="P30" s="19">
         <v>-170.87729999999999</v>
       </c>
-      <c r="Q30" s="101">
+      <c r="Q30" s="73">
         <v>-17827.524829999998</v>
       </c>
       <c r="R30" s="21">
@@ -3463,14 +3869,23 @@
       <c r="S30" s="21">
         <v>-59.071199999999997</v>
       </c>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="126"/>
-      <c r="Y30" s="115"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T30" s="21">
+        <v>-38.903660000000002</v>
+      </c>
+      <c r="U30" s="21">
+        <v>-37.985050000000001</v>
+      </c>
+      <c r="V30" s="21">
+        <v>-57.439729999999997</v>
+      </c>
+      <c r="W30" s="87">
+        <v>-39.560630000000003</v>
+      </c>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+    </row>
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3480,14 +3895,14 @@
       <c r="C31" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="34"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="20">
         <v>-9262.86</v>
       </c>
       <c r="F31" s="21">
         <v>-4633.5829999999996</v>
       </c>
-      <c r="G31" s="101">
+      <c r="G31" s="73">
         <v>-15126.089029999999</v>
       </c>
       <c r="H31" s="21">
@@ -3496,10 +3911,21 @@
       <c r="I31" s="21">
         <v>-14727.243119999999</v>
       </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="17"/>
+      <c r="J31" s="21">
+        <v>-10323.57</v>
+      </c>
+      <c r="K31" s="21">
+        <f>-10484.99632</f>
+        <v>-10484.99632</v>
+      </c>
+      <c r="L31" s="21">
+        <f>-15486.36959</f>
+        <v>-15486.36959</v>
+      </c>
+      <c r="M31" s="21">
+        <f>-25552.58415</f>
+        <v>-25552.584149999999</v>
+      </c>
       <c r="N31" s="18"/>
       <c r="O31" s="20">
         <v>-14724.093999999999</v>
@@ -3507,7 +3933,7 @@
       <c r="P31" s="19">
         <v>-7308.7879999999996</v>
       </c>
-      <c r="Q31" s="101">
+      <c r="Q31" s="73">
         <v>-75.827479999999994</v>
       </c>
       <c r="R31" s="21">
@@ -3516,67 +3942,96 @@
       <c r="S31" s="21">
         <v>-17360.098300000001</v>
       </c>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="115"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C32" s="55" t="s">
+      <c r="T31" s="21">
+        <v>-12023.06</v>
+      </c>
+      <c r="U31" s="21">
+        <v>-12673.588040000001</v>
+      </c>
+      <c r="V31" s="21">
+        <v>-18217.416939999999</v>
+      </c>
+      <c r="W31" s="87">
+        <v>-37298.957190000001</v>
+      </c>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+    </row>
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C32" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="34">
         <v>80806.179999999993</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="35">
         <v>-9229.4609999999993</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="36">
         <v>-4606.768</v>
       </c>
-      <c r="G32" s="103">
+      <c r="G32" s="75">
         <v>-15081.306699999999</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="36">
         <v>-14800.33</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="36">
         <v>-14800.33</v>
       </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="40"/>
+      <c r="J32" s="36">
+        <v>-10277.1</v>
+      </c>
+      <c r="K32" s="36">
+        <f>-10463.69528</f>
+        <v>-10463.69528</v>
+      </c>
+      <c r="L32" s="36">
+        <f>-15425.45133</f>
+        <v>-15425.45133</v>
+      </c>
+      <c r="M32" s="36">
+        <f>-25438.40765</f>
+        <v>-25438.407650000001</v>
+      </c>
       <c r="N32" s="18"/>
-      <c r="O32" s="37">
+      <c r="O32" s="35">
         <v>-14699.832</v>
       </c>
-      <c r="P32" s="41">
+      <c r="P32" s="37">
         <v>-7287.5829999999996</v>
       </c>
-      <c r="Q32" s="103">
+      <c r="Q32" s="75">
         <v>-17744.27563</v>
       </c>
-      <c r="R32" s="38">
+      <c r="R32" s="36">
         <v>-17192.599999999999</v>
       </c>
-      <c r="S32" s="38">
+      <c r="S32" s="36">
         <v>-17192.599999999999</v>
       </c>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="126"/>
-      <c r="Y32" s="115"/>
-    </row>
-    <row r="33" spans="1:25" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="56" t="s">
+      <c r="T32" s="36">
+        <v>-11984.11</v>
+      </c>
+      <c r="U32" s="36">
+        <v>-12635.37074</v>
+      </c>
+      <c r="V32" s="36">
+        <v>-18147.265670000001</v>
+      </c>
+      <c r="W32" s="90">
+        <v>-37108.17542</v>
+      </c>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+    </row>
+    <row r="33" spans="1:26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="31">
         <f>D32+D29</f>
         <v>50098.599999999991</v>
       </c>
@@ -3586,7 +4041,7 @@
       <c r="F33" s="29">
         <v>-22211.71</v>
       </c>
-      <c r="G33" s="102">
+      <c r="G33" s="74">
         <v>-55864.55</v>
       </c>
       <c r="H33" s="29">
@@ -3595,10 +4050,21 @@
       <c r="I33" s="29">
         <v>-55864.55</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="31"/>
+      <c r="J33" s="29">
+        <v>-14630.59</v>
+      </c>
+      <c r="K33" s="29">
+        <f>-11594.71272</f>
+        <v>-11594.71272</v>
+      </c>
+      <c r="L33" s="29">
+        <f>-27168.0703</f>
+        <v>-27168.070299999999</v>
+      </c>
+      <c r="M33" s="29">
+        <f>-19838.1009</f>
+        <v>-19838.100900000001</v>
+      </c>
       <c r="N33" s="18"/>
       <c r="O33" s="29">
         <v>-61048.71</v>
@@ -3606,7 +4072,7 @@
       <c r="P33" s="29">
         <v>-31341.61</v>
       </c>
-      <c r="Q33" s="102">
+      <c r="Q33" s="74">
         <v>-65849.62</v>
       </c>
       <c r="R33" s="29">
@@ -3615,14 +4081,23 @@
       <c r="S33" s="29">
         <v>-65826.34</v>
       </c>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="126"/>
-      <c r="Y33" s="116"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T33" s="29">
+        <v>-17468.5</v>
+      </c>
+      <c r="U33" s="29">
+        <v>-14195.573469999999</v>
+      </c>
+      <c r="V33" s="29">
+        <v>-31767.7035</v>
+      </c>
+      <c r="W33" s="89">
+        <v>-24209.23</v>
+      </c>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="101"/>
+    </row>
+    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -3632,14 +4107,14 @@
       <c r="C34" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="34"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="20">
         <v>-8.015717E-2</v>
       </c>
       <c r="F34" s="21">
         <v>-6.0511179999999998E-2</v>
       </c>
-      <c r="G34" s="101">
+      <c r="G34" s="73">
         <v>-1.15479E-2</v>
       </c>
       <c r="H34" s="21">
@@ -3648,10 +4123,21 @@
       <c r="I34" s="21">
         <v>-1.1497240000000001E-2</v>
       </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="17"/>
+      <c r="J34" s="21">
+        <v>-4.9002049999999998E-2</v>
+      </c>
+      <c r="K34" s="21">
+        <f>-0.053943251</f>
+        <v>-5.3943250999999998E-2</v>
+      </c>
+      <c r="L34" s="21">
+        <f>-0.044483621</f>
+        <v>-4.4483621000000001E-2</v>
+      </c>
+      <c r="M34" s="21">
+        <f>-0.038458981</f>
+        <v>-3.8458981000000003E-2</v>
+      </c>
       <c r="N34" s="18"/>
       <c r="O34" s="20">
         <v>-0.1077004</v>
@@ -3659,7 +4145,7 @@
       <c r="P34" s="19">
         <v>-7.008346E-2</v>
       </c>
-      <c r="Q34" s="101">
+      <c r="Q34" s="73">
         <v>-1.361237E-2</v>
       </c>
       <c r="R34" s="21">
@@ -3668,18 +4154,29 @@
       <c r="S34" s="21">
         <v>-1.356738E-2</v>
       </c>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="125" t="s">
+      <c r="T34" s="21">
+        <v>-5.7304250000000001E-2</v>
+      </c>
+      <c r="U34" s="21">
+        <v>-6.1606542E-2</v>
+      </c>
+      <c r="V34" s="21">
+        <v>-5.1852664E-2</v>
+      </c>
+      <c r="W34" s="87">
+        <v>-4.5661804E-2</v>
+      </c>
+      <c r="X34" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="Y34" s="114" t="s">
+      <c r="Y34" s="99" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z34" s="99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -3689,14 +4186,14 @@
       <c r="C35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="20">
         <v>-5.3275409999999999E-3</v>
       </c>
       <c r="F35" s="21">
         <v>-8.5263839999999997E-3</v>
       </c>
-      <c r="G35" s="101">
+      <c r="G35" s="73">
         <v>-6.7657900000000007E-2</v>
       </c>
       <c r="H35" s="21">
@@ -3705,10 +4202,21 @@
       <c r="I35" s="21">
         <v>-6.7655750000000001E-2</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="17"/>
+      <c r="J35" s="21">
+        <v>-5.137806E-3</v>
+      </c>
+      <c r="K35" s="21">
+        <f>-0.005904092</f>
+        <v>-5.9040919999999997E-3</v>
+      </c>
+      <c r="L35" s="21">
+        <f>-0.004400826</f>
+        <v>-4.400826E-3</v>
+      </c>
+      <c r="M35" s="21">
+        <f>-0.006536315</f>
+        <v>-6.536315E-3</v>
+      </c>
       <c r="N35" s="18"/>
       <c r="O35" s="20">
         <v>-9.7687910000000006E-3</v>
@@ -3716,7 +4224,7 @@
       <c r="P35" s="19">
         <v>-1.2522948000000001E-2</v>
       </c>
-      <c r="Q35" s="101">
+      <c r="Q35" s="73">
         <v>-7.9753400000000002E-2</v>
       </c>
       <c r="R35" s="21">
@@ -3725,14 +4233,23 @@
       <c r="S35" s="21">
         <v>-7.9751489999999994E-2</v>
       </c>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="126"/>
-      <c r="Y35" s="115"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T35" s="21">
+        <v>-6.0851430000000003E-3</v>
+      </c>
+      <c r="U35" s="21">
+        <v>-7.1768300000000004E-3</v>
+      </c>
+      <c r="V35" s="21">
+        <v>-5.1525989999999999E-3</v>
+      </c>
+      <c r="W35" s="87">
+        <v>-9.5874459999999995E-3</v>
+      </c>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+    </row>
+    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3742,14 +4259,14 @@
       <c r="C36" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="34"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="20">
         <v>-3.5109290000000001E-2</v>
       </c>
       <c r="F36" s="21">
         <v>-3.5109290000000001E-2</v>
       </c>
-      <c r="G36" s="101">
+      <c r="G36" s="73">
         <v>-5.2384779999999999E-2</v>
       </c>
       <c r="H36" s="21">
@@ -3758,10 +4275,21 @@
       <c r="I36" s="21">
         <v>-5.2452819999999997E-2</v>
       </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="17"/>
+      <c r="J36" s="21">
+        <v>-2.3146730000000001E-2</v>
+      </c>
+      <c r="K36" s="21">
+        <f>-0.025534442</f>
+        <v>-2.5534442000000001E-2</v>
+      </c>
+      <c r="L36" s="21">
+        <f>-0.042820309</f>
+        <v>-4.2820309000000001E-2</v>
+      </c>
+      <c r="M36" s="21">
+        <f>-0.03755833</f>
+        <v>-3.7558330000000001E-2</v>
+      </c>
       <c r="N36" s="18"/>
       <c r="O36" s="20">
         <v>-0.11959976</v>
@@ -3769,7 +4297,7 @@
       <c r="P36" s="19">
         <v>-9.660929E-2</v>
       </c>
-      <c r="Q36" s="101">
+      <c r="Q36" s="73">
         <v>-6.174984E-2</v>
       </c>
       <c r="R36" s="21">
@@ -3778,63 +4306,92 @@
       <c r="S36" s="21">
         <v>-6.1810339999999998E-2</v>
       </c>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="91"/>
-      <c r="X36" s="126"/>
-      <c r="Y36" s="115"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C37" s="35" t="s">
+      <c r="T36" s="21">
+        <v>-2.7175609999999999E-2</v>
+      </c>
+      <c r="U36" s="21">
+        <v>-2.9265757E-2</v>
+      </c>
+      <c r="V36" s="21">
+        <v>-5.1300047000000001E-2</v>
+      </c>
+      <c r="W36" s="87">
+        <v>-6.2942558999999995E-2</v>
+      </c>
+      <c r="X36" s="109"/>
+      <c r="Y36" s="100"/>
+      <c r="Z36" s="100"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="44">
         <v>0.56927170000000005</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="45">
         <v>-0.10196399</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="46">
         <v>-5.9658280000000001E-2</v>
       </c>
-      <c r="G37" s="106">
+      <c r="G37" s="78">
         <v>-8.7575150000000004E-2</v>
       </c>
-      <c r="H37" s="53">
+      <c r="H37" s="46">
         <v>-8.7575669999999994E-2</v>
       </c>
-      <c r="I37" s="53">
+      <c r="I37" s="46">
         <v>-8.7582350000000003E-2</v>
       </c>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="58"/>
+      <c r="J37" s="46">
+        <v>-6.7061850000000006E-2</v>
+      </c>
+      <c r="K37" s="46">
+        <f>-0.073851212</f>
+        <v>-7.3851211999999999E-2</v>
+      </c>
+      <c r="L37" s="46">
+        <f>-0.065736784</f>
+        <v>-6.5736784000000006E-2</v>
+      </c>
+      <c r="M37" s="46">
+        <f>-0.059576197</f>
+        <v>-5.9576196999999997E-2</v>
+      </c>
       <c r="N37" s="18"/>
-      <c r="O37" s="52">
+      <c r="O37" s="45">
         <v>-0.16010770999999999</v>
       </c>
-      <c r="P37" s="54">
+      <c r="P37" s="47">
         <v>-8.8340639999999998E-2</v>
       </c>
-      <c r="Q37" s="106">
+      <c r="Q37" s="78">
         <v>-0.10323135</v>
       </c>
-      <c r="R37" s="53">
+      <c r="R37" s="46">
         <v>-0.10323197000000001</v>
       </c>
-      <c r="S37" s="53">
+      <c r="S37" s="46">
         <v>-0.10323789999999999</v>
       </c>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="126"/>
-      <c r="Y37" s="115"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T37" s="46">
+        <v>-7.8475149999999994E-2</v>
+      </c>
+      <c r="U37" s="46">
+        <v>-8.4390602999999995E-2</v>
+      </c>
+      <c r="V37" s="46">
+        <v>-7.8776048000000001E-2</v>
+      </c>
+      <c r="W37" s="93">
+        <v>-8.4745031999999998E-2</v>
+      </c>
+      <c r="X37" s="109"/>
+      <c r="Y37" s="100"/>
+      <c r="Z37" s="100"/>
+    </row>
+    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3844,14 +4401,14 @@
       <c r="C38" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="34"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="20">
         <v>-3.4709480000000001E-2</v>
       </c>
       <c r="F38" s="21">
         <v>-4.77432E-2</v>
       </c>
-      <c r="G38" s="101">
+      <c r="G38" s="73">
         <v>-9.6123349999999998E-4</v>
       </c>
       <c r="H38" s="21">
@@ -3860,10 +4417,21 @@
       <c r="I38" s="21">
         <v>-9.5981310000000004E-4</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="17"/>
+      <c r="J38" s="21">
+        <v>-2.870321E-2</v>
+      </c>
+      <c r="K38" s="21">
+        <f>-0.032822806</f>
+        <v>-3.2822806000000003E-2</v>
+      </c>
+      <c r="L38" s="21">
+        <f>-0.025675073</f>
+        <v>-2.5675073E-2</v>
+      </c>
+      <c r="M38" s="21">
+        <f>-0.036271527</f>
+        <v>-3.6271526999999998E-2</v>
+      </c>
       <c r="N38" s="18"/>
       <c r="O38" s="20">
         <v>-5.063078E-2</v>
@@ -3871,7 +4439,7 @@
       <c r="P38" s="19">
         <v>-5.8631589999999997E-2</v>
       </c>
-      <c r="Q38" s="101">
+      <c r="Q38" s="73">
         <v>-1.1330775000000001E-3</v>
       </c>
       <c r="R38" s="21">
@@ -3880,14 +4448,23 @@
       <c r="S38" s="21">
         <v>-1.131815E-3</v>
       </c>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="91"/>
-      <c r="X38" s="126"/>
-      <c r="Y38" s="115"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T38" s="21">
+        <v>-3.3765459999999997E-2</v>
+      </c>
+      <c r="U38" s="21">
+        <v>-3.9463151000000002E-2</v>
+      </c>
+      <c r="V38" s="21">
+        <v>-2.9655279999999999E-2</v>
+      </c>
+      <c r="W38" s="87">
+        <v>-5.1900237000000002E-2</v>
+      </c>
+      <c r="X38" s="109"/>
+      <c r="Y38" s="100"/>
+      <c r="Z38" s="100"/>
+    </row>
+    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -3897,14 +4474,14 @@
       <c r="C39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="34"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="20">
         <v>-1.6796129999999999E-3</v>
       </c>
       <c r="F39" s="21">
         <v>-2.31985E-3</v>
       </c>
-      <c r="G39" s="101">
+      <c r="G39" s="73">
         <v>-3.6550543599999999E-2</v>
       </c>
       <c r="H39" s="21">
@@ -3913,10 +4490,21 @@
       <c r="I39" s="21">
         <v>-3.65489009E-2</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="17"/>
+      <c r="J39" s="21">
+        <v>-1.270897E-3</v>
+      </c>
+      <c r="K39" s="21">
+        <f>-0.001461517</f>
+        <v>-1.4615170000000001E-3</v>
+      </c>
+      <c r="L39" s="21">
+        <f>-0.001064441</f>
+        <v>-1.064441E-3</v>
+      </c>
+      <c r="M39" s="21">
+        <f>-0.001624584</f>
+        <v>-1.6245840000000001E-3</v>
+      </c>
       <c r="N39" s="18"/>
       <c r="O39" s="20">
         <v>-2.44867E-3</v>
@@ -3924,7 +4512,7 @@
       <c r="P39" s="19">
         <v>-3.027432E-3</v>
       </c>
-      <c r="Q39" s="101">
+      <c r="Q39" s="73">
         <v>-4.3084847799999999E-2</v>
       </c>
       <c r="R39" s="21">
@@ -3933,14 +4521,23 @@
       <c r="S39" s="21">
         <v>-4.3083388E-2</v>
       </c>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="91"/>
-      <c r="X39" s="126"/>
-      <c r="Y39" s="115"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T39" s="21">
+        <v>-1.50676E-3</v>
+      </c>
+      <c r="U39" s="21">
+        <v>-1.7794779999999999E-3</v>
+      </c>
+      <c r="V39" s="21">
+        <v>-1.2427149999999999E-3</v>
+      </c>
+      <c r="W39" s="87">
+        <v>-2.3757470000000001E-3</v>
+      </c>
+      <c r="X39" s="109"/>
+      <c r="Y39" s="100"/>
+      <c r="Z39" s="100"/>
+    </row>
+    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -3950,14 +4547,14 @@
       <c r="C40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="34"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="20">
         <v>-3.0931730000000001E-2</v>
       </c>
       <c r="F40" s="21">
         <v>-2.677947E-2</v>
       </c>
-      <c r="G40" s="101">
+      <c r="G40" s="73">
         <v>-3.2779000400000001E-2</v>
       </c>
       <c r="H40" s="21">
@@ -3966,10 +4563,21 @@
       <c r="I40" s="21">
         <v>-3.2809563600000001E-2</v>
       </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="17"/>
+      <c r="J40" s="21">
+        <v>-2.3146730000000001E-2</v>
+      </c>
+      <c r="K40" s="21">
+        <f>-0.025534442</f>
+        <v>-2.5534442000000001E-2</v>
+      </c>
+      <c r="L40" s="21">
+        <f>-0.042820309</f>
+        <v>-4.2820309000000001E-2</v>
+      </c>
+      <c r="M40" s="21">
+        <f>-0.03755833</f>
+        <v>-3.7558330000000001E-2</v>
+      </c>
       <c r="N40" s="18"/>
       <c r="O40" s="20">
         <v>-6.0070989999999998E-2</v>
@@ -3977,7 +4585,7 @@
       <c r="P40" s="19">
         <v>-4.0516549999999998E-2</v>
       </c>
-      <c r="Q40" s="101">
+      <c r="Q40" s="73">
         <v>-3.8639049000000002E-2</v>
       </c>
       <c r="R40" s="21">
@@ -3986,316 +4594,428 @@
       <c r="S40" s="21">
         <v>-3.8666220000000001E-2</v>
       </c>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="91"/>
-      <c r="X40" s="126"/>
-      <c r="Y40" s="115"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C41" s="35" t="s">
+      <c r="T40" s="21">
+        <v>-2.3146730000000001E-2</v>
+      </c>
+      <c r="U40" s="21">
+        <v>-2.5534442000000001E-2</v>
+      </c>
+      <c r="V40" s="21">
+        <v>-4.2820309000000001E-2</v>
+      </c>
+      <c r="W40" s="87">
+        <v>-3.7558330000000001E-2</v>
+      </c>
+      <c r="X40" s="109"/>
+      <c r="Y40" s="100"/>
+      <c r="Z40" s="100"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C41" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="34">
         <v>0.30533529999999998</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="35">
         <v>-5.1559679999999997E-2</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="36">
         <v>-5.0033290000000001E-2</v>
       </c>
-      <c r="G41" s="106">
+      <c r="G41" s="78">
         <v>-4.7301739799999999E-2</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41" s="36">
         <v>-4.7301790000000003E-2</v>
       </c>
-      <c r="I41" s="38">
+      <c r="I41" s="36">
         <v>-4.7331129999999999E-2</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="58"/>
+      <c r="J41" s="36">
+        <v>-2.020783E-2</v>
+      </c>
+      <c r="K41" s="36">
+        <f>-0.023015151</f>
+        <v>-2.3015151000000001E-2</v>
+      </c>
+      <c r="L41" s="36">
+        <f>-0.042014524</f>
+        <v>-4.2014523999999998E-2</v>
+      </c>
+      <c r="M41" s="36">
+        <f>-0.049114659</f>
+        <v>-4.9114658999999998E-2</v>
+      </c>
       <c r="N41" s="18"/>
-      <c r="O41" s="37">
+      <c r="O41" s="35">
         <v>-6.9793030000000006E-2</v>
       </c>
-      <c r="P41" s="41">
+      <c r="P41" s="37">
         <v>-6.1882899999999998E-2</v>
       </c>
-      <c r="Q41" s="106">
+      <c r="Q41" s="78">
         <v>-5.57580835E-2</v>
       </c>
-      <c r="R41" s="38">
+      <c r="R41" s="36">
         <v>-5.5758139999999998E-2</v>
       </c>
-      <c r="S41" s="38">
+      <c r="S41" s="36">
         <v>-5.5784229999999997E-2</v>
       </c>
-      <c r="T41" s="57"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="95"/>
-      <c r="X41" s="126"/>
-      <c r="Y41" s="115"/>
-    </row>
-    <row r="42" spans="1:25" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T41" s="36">
+        <v>-2.3641140000000001E-2</v>
+      </c>
+      <c r="U41" s="36">
+        <v>-2.7436225000000002E-2</v>
+      </c>
+      <c r="V41" s="36">
+        <v>-4.9716907999999997E-2</v>
+      </c>
+      <c r="W41" s="90">
+        <v>-6.9477775000000006E-2</v>
+      </c>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="100"/>
+      <c r="Z41" s="100"/>
+    </row>
+    <row r="42" spans="1:26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C42" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="59">
+      <c r="D42" s="50">
         <f>D41+D37</f>
         <v>0.87460700000000002</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="51">
         <v>-0.1120958</v>
       </c>
-      <c r="F42" s="61">
+      <c r="F42" s="52">
         <v>-6.6118499999999997E-2</v>
       </c>
-      <c r="G42" s="102">
+      <c r="G42" s="74">
         <v>-0.118298</v>
       </c>
-      <c r="H42" s="61">
+      <c r="H42" s="52">
         <v>-0.1182985</v>
       </c>
-      <c r="I42" s="61">
+      <c r="I42" s="52">
         <v>-0.1183589</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="31"/>
+      <c r="J42" s="52">
+        <v>-4.4648380000000001E-2</v>
+      </c>
+      <c r="K42" s="52">
+        <f>-0.048951151</f>
+        <v>-4.8951150999999998E-2</v>
+      </c>
+      <c r="L42" s="52">
+        <f>-0.085179128</f>
+        <v>-8.5179128000000007E-2</v>
+      </c>
+      <c r="M42" s="52">
+        <f>-0.073354074</f>
+        <v>-7.3354074000000005E-2</v>
+      </c>
       <c r="N42" s="18"/>
-      <c r="O42" s="60">
+      <c r="O42" s="51">
         <v>-0.21027960000000001</v>
       </c>
-      <c r="P42" s="62">
+      <c r="P42" s="53">
         <v>-0.10631060000000001</v>
       </c>
-      <c r="Q42" s="102">
+      <c r="Q42" s="74">
         <v>-0.13944670000000001</v>
       </c>
-      <c r="R42" s="61">
+      <c r="R42" s="52">
         <v>-0.1394473</v>
       </c>
-      <c r="S42" s="61">
+      <c r="S42" s="52">
         <v>-0.13950090000000001</v>
       </c>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="92"/>
-      <c r="X42" s="130"/>
-      <c r="Y42" s="116"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C43" s="63"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="107"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="64"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="64"/>
-      <c r="W43" s="64"/>
-    </row>
-    <row r="44" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="65" t="s">
+      <c r="T42" s="52">
+        <v>-5.1809109999999998E-2</v>
+      </c>
+      <c r="U42" s="52">
+        <v>-5.5510728000000002E-2</v>
+      </c>
+      <c r="V42" s="52">
+        <v>-0.10005726500000001</v>
+      </c>
+      <c r="W42" s="94">
+        <v>-0.12356227</v>
+      </c>
+      <c r="X42" s="110"/>
+      <c r="Y42" s="101"/>
+      <c r="Z42" s="101"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C43" s="54"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="107"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64"/>
-      <c r="U44" s="64"/>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="128" t="s">
+      <c r="C44" s="54"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="79"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="Y44" s="113" t="s">
+      <c r="Y44" s="98" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="67" t="s">
+      <c r="Z44" s="98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="68">
+      <c r="D45" s="59">
         <v>-276232.5</v>
       </c>
-      <c r="E45" s="69">
+      <c r="E45" s="60">
         <v>-390213.6</v>
       </c>
-      <c r="F45" s="70">
+      <c r="F45" s="61">
         <v>-397407.4</v>
       </c>
-      <c r="G45" s="108">
+      <c r="G45" s="80">
         <v>-52682.26</v>
       </c>
-      <c r="H45" s="70">
+      <c r="H45" s="61">
         <v>-52682.26</v>
       </c>
-      <c r="I45" s="70">
+      <c r="I45" s="61">
         <v>-52682.26</v>
       </c>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="72"/>
+      <c r="J45" s="61">
+        <v>-95973.39</v>
+      </c>
+      <c r="K45" s="61">
+        <f>-109767.7</f>
+        <v>-109767.7</v>
+      </c>
+      <c r="L45" s="61">
+        <f>-27462.98</f>
+        <v>-27462.98</v>
+      </c>
+      <c r="M45" s="61">
+        <f>-29258.03</f>
+        <v>-29258.03</v>
+      </c>
       <c r="N45" s="18"/>
-      <c r="O45" s="69">
+      <c r="O45" s="60">
         <v>-395103.1</v>
       </c>
-      <c r="P45" s="70">
+      <c r="P45" s="61">
         <v>-397454.6</v>
       </c>
-      <c r="Q45" s="108">
+      <c r="Q45" s="80">
         <v>-62092.85</v>
       </c>
-      <c r="R45" s="70">
+      <c r="R45" s="61">
         <v>-62092.85</v>
       </c>
-      <c r="S45" s="70">
+      <c r="S45" s="61">
         <v>-62092.85</v>
       </c>
-      <c r="T45" s="71"/>
-      <c r="U45" s="71"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="73"/>
-      <c r="X45" s="128"/>
-      <c r="Y45" s="113"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C46" s="67" t="s">
+      <c r="T45" s="61">
+        <v>-114153.84</v>
+      </c>
+      <c r="U45" s="61">
+        <v>-135747.6</v>
+      </c>
+      <c r="V45" s="61">
+        <v>-32439.35</v>
+      </c>
+      <c r="W45" s="95">
+        <v>-33205.449999999997</v>
+      </c>
+      <c r="X45" s="106"/>
+      <c r="Y45" s="98"/>
+      <c r="Z45" s="98"/>
+    </row>
+    <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C46" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="74">
+      <c r="D46" s="62">
         <v>29678.66</v>
       </c>
-      <c r="E46" s="75">
+      <c r="E46" s="63">
         <v>-376.9144</v>
       </c>
-      <c r="F46" s="76">
+      <c r="F46" s="64">
         <v>-399.28449999999998</v>
       </c>
-      <c r="G46" s="109">
+      <c r="G46" s="81">
         <v>-443.2817</v>
       </c>
-      <c r="H46" s="76">
+      <c r="H46" s="64">
         <v>-443.2817</v>
       </c>
-      <c r="I46" s="76">
+      <c r="I46" s="64">
         <v>-443.2817</v>
       </c>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="78"/>
+      <c r="J46" s="64">
+        <v>-442.11410000000001</v>
+      </c>
+      <c r="K46" s="64">
+        <f>-419.8034</f>
+        <v>-419.80340000000001</v>
+      </c>
+      <c r="L46" s="64">
+        <f>-74.57258</f>
+        <v>-74.572580000000002</v>
+      </c>
+      <c r="M46" s="64">
+        <f>-72.93165</f>
+        <v>-72.931650000000005</v>
+      </c>
       <c r="N46" s="18"/>
-      <c r="O46" s="75">
+      <c r="O46" s="63">
         <v>-451.40089999999998</v>
       </c>
-      <c r="P46" s="76">
+      <c r="P46" s="64">
         <v>-516.1567</v>
       </c>
-      <c r="Q46" s="109">
+      <c r="Q46" s="81">
         <v>-514.88080000000002</v>
       </c>
-      <c r="R46" s="76">
+      <c r="R46" s="64">
         <v>-514.88080000000002</v>
       </c>
-      <c r="S46" s="76">
+      <c r="S46" s="64">
         <v>-514.88080000000002</v>
       </c>
-      <c r="T46" s="77"/>
-      <c r="U46" s="77"/>
-      <c r="V46" s="77"/>
-      <c r="W46" s="79"/>
-      <c r="X46" s="128"/>
-      <c r="Y46" s="113"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C47" s="67" t="s">
+      <c r="T46" s="64">
+        <v>-527.77599999999995</v>
+      </c>
+      <c r="U46" s="64">
+        <v>-511.7079</v>
+      </c>
+      <c r="V46" s="64">
+        <v>-87.626400000000004</v>
+      </c>
+      <c r="W46" s="96">
+        <v>-87.581299999999999</v>
+      </c>
+      <c r="X46" s="106"/>
+      <c r="Y46" s="98"/>
+      <c r="Z46" s="98"/>
+    </row>
+    <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C47" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="74">
+      <c r="D47" s="62">
         <v>51586.99</v>
       </c>
-      <c r="E47" s="75">
+      <c r="E47" s="63">
         <v>-44488.54</v>
       </c>
-      <c r="F47" s="76">
+      <c r="F47" s="64">
         <v>-22080.35</v>
       </c>
-      <c r="G47" s="109">
+      <c r="G47" s="81">
         <v>-1283.146</v>
       </c>
-      <c r="H47" s="76">
+      <c r="H47" s="64">
         <v>-1283.1579999999999</v>
       </c>
-      <c r="I47" s="76">
+      <c r="I47" s="64">
         <v>-1277.6959999999999</v>
       </c>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="78"/>
+      <c r="J47" s="64">
+        <v>-14580.72</v>
+      </c>
+      <c r="K47" s="64">
+        <f>-11600.63</f>
+        <v>-11600.63</v>
+      </c>
+      <c r="L47" s="64">
+        <f>-27110.77</f>
+        <v>-27110.77</v>
+      </c>
+      <c r="M47" s="64">
+        <f>-19704.94</f>
+        <v>-19704.939999999999</v>
+      </c>
       <c r="N47" s="18"/>
-      <c r="O47" s="75">
+      <c r="O47" s="63">
         <v>-60912.69</v>
       </c>
-      <c r="P47" s="76">
+      <c r="P47" s="64">
         <v>-31318.07</v>
       </c>
-      <c r="Q47" s="109">
+      <c r="Q47" s="81">
         <v>-1505.2449999999999</v>
       </c>
-      <c r="R47" s="76">
+      <c r="R47" s="64">
         <v>-1505.26</v>
       </c>
-      <c r="S47" s="76">
+      <c r="S47" s="64">
         <v>-1500.4059999999999</v>
       </c>
-      <c r="T47" s="77"/>
-      <c r="U47" s="77"/>
-      <c r="V47" s="77"/>
-      <c r="W47" s="79"/>
-      <c r="X47" s="128"/>
-      <c r="Y47" s="113"/>
-    </row>
-    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C48" s="67" t="s">
+      <c r="T47" s="64">
+        <v>-17412.38</v>
+      </c>
+      <c r="U47" s="64">
+        <v>-14070.04</v>
+      </c>
+      <c r="V47" s="64">
+        <v>-31638.67</v>
+      </c>
+      <c r="W47" s="96">
+        <v>-24074.86</v>
+      </c>
+      <c r="X47" s="106"/>
+      <c r="Y47" s="98"/>
+      <c r="Z47" s="98"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="58" t="s">
         <v>61</v>
       </c>
       <c r="D48" s="18"/>
@@ -4305,13 +5025,24 @@
       <c r="F48" s="21">
         <v>-4.1821179999999999E-2</v>
       </c>
-      <c r="G48" s="110"/>
+      <c r="G48" s="82"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="81"/>
+      <c r="J48" s="21">
+        <v>-3.2367989999999999E-2</v>
+      </c>
+      <c r="K48" s="21">
+        <f>-0.03570661</f>
+        <v>-3.570661E-2</v>
+      </c>
+      <c r="L48" s="21">
+        <f>-0.0718287</f>
+        <v>-7.1828699999999995E-2</v>
+      </c>
+      <c r="M48" s="21">
+        <f>-0.06277878</f>
+        <v>-6.2778780000000006E-2</v>
+      </c>
       <c r="N48" s="18"/>
       <c r="O48" s="20">
         <v>-0.15679630999999999</v>
@@ -4319,365 +5050,403 @@
       <c r="P48" s="21">
         <v>-8.3376210000000006E-2</v>
       </c>
-      <c r="Q48" s="110"/>
+      <c r="Q48" s="82"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
-      <c r="T48" s="80"/>
-      <c r="U48" s="80"/>
-      <c r="V48" s="80"/>
-      <c r="W48" s="82"/>
-      <c r="X48" s="128"/>
-      <c r="Y48" s="113"/>
-    </row>
-    <row r="49" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C49" s="67" t="s">
+      <c r="T48" s="21">
+        <v>-3.800129E-2</v>
+      </c>
+      <c r="U48" s="21">
+        <v>-4.092378E-2</v>
+      </c>
+      <c r="V48" s="21">
+        <v>-8.602638E-2</v>
+      </c>
+      <c r="W48" s="87">
+        <v>-0.1096215</v>
+      </c>
+      <c r="X48" s="106"/>
+      <c r="Y48" s="98"/>
+      <c r="Z48" s="98"/>
+    </row>
+    <row r="49" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="83">
+      <c r="D49" s="65">
         <v>-194966.9</v>
       </c>
-      <c r="E49" s="84">
+      <c r="E49" s="66">
         <v>-406612.3</v>
       </c>
-      <c r="F49" s="85">
+      <c r="F49" s="67">
         <v>-406612.3</v>
       </c>
-      <c r="G49" s="111">
+      <c r="G49" s="83">
         <v>-76468.429999999993</v>
       </c>
-      <c r="H49" s="85">
+      <c r="H49" s="67">
         <v>-76457.95</v>
       </c>
-      <c r="I49" s="85">
+      <c r="I49" s="67">
         <v>-76457.919999999998</v>
       </c>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="87"/>
+      <c r="J49" s="67">
+        <v>-95731.76</v>
+      </c>
+      <c r="K49" s="67">
+        <f>-107595.3</f>
+        <v>-107595.3</v>
+      </c>
+      <c r="L49" s="67">
+        <f>-37241.12</f>
+        <v>-37241.120000000003</v>
+      </c>
+      <c r="M49" s="67">
+        <f>-34931.24</f>
+        <v>-34931.24</v>
+      </c>
       <c r="N49" s="18"/>
-      <c r="O49" s="84">
+      <c r="O49" s="66">
         <v>-414685.7</v>
       </c>
-      <c r="P49" s="85">
+      <c r="P49" s="67">
         <v>-410316</v>
       </c>
-      <c r="Q49" s="111">
+      <c r="Q49" s="83">
         <v>-90130.61</v>
       </c>
-      <c r="R49" s="85">
+      <c r="R49" s="67">
         <v>-90119.38</v>
       </c>
-      <c r="S49" s="85">
+      <c r="S49" s="67">
         <v>-90119.360000000001</v>
       </c>
-      <c r="T49" s="86"/>
-      <c r="U49" s="86"/>
-      <c r="V49" s="86"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="128"/>
-      <c r="Y49" s="113"/>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C50" s="63"/>
-      <c r="D50" s="89"/>
-      <c r="X50" s="128"/>
-      <c r="Y50" s="113"/>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C51" s="63"/>
-      <c r="D51" s="96" t="s">
+      <c r="T49" s="67">
+        <v>-112779.65</v>
+      </c>
+      <c r="U49" s="67">
+        <v>-134447.5</v>
+      </c>
+      <c r="V49" s="67">
+        <v>-44656.76</v>
+      </c>
+      <c r="W49" s="97">
+        <v>-40953.01</v>
+      </c>
+      <c r="X49" s="106"/>
+      <c r="Y49" s="98"/>
+      <c r="Z49" s="98"/>
+    </row>
+    <row r="50" spans="3:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C50" s="54"/>
+      <c r="D50" s="68"/>
+      <c r="X50" s="106"/>
+      <c r="Y50" s="98"/>
+      <c r="Z50" s="98"/>
+    </row>
+    <row r="51" spans="3:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C51" s="54"/>
+      <c r="D51" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="97"/>
-      <c r="L51" s="97"/>
-      <c r="M51" s="97"/>
-      <c r="N51" s="97"/>
-      <c r="O51" s="97"/>
-      <c r="P51" s="97"/>
-      <c r="Q51" s="97"/>
-      <c r="R51" s="97"/>
-      <c r="S51" s="97"/>
-      <c r="T51" s="97"/>
-      <c r="U51" s="97"/>
-      <c r="V51" s="97"/>
-      <c r="W51" s="97"/>
-      <c r="X51" s="128"/>
-      <c r="Y51" s="113"/>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C52" s="63"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="97"/>
-      <c r="M52" s="97"/>
-      <c r="N52" s="97"/>
-      <c r="O52" s="97"/>
-      <c r="P52" s="97"/>
-      <c r="Q52" s="97"/>
-      <c r="R52" s="97"/>
-      <c r="S52" s="97"/>
-      <c r="T52" s="97"/>
-      <c r="U52" s="97"/>
-      <c r="V52" s="97"/>
-      <c r="W52" s="97"/>
-      <c r="X52" s="128"/>
-      <c r="Y52" s="113"/>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C53" s="63"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="97"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="97"/>
-      <c r="Q53" s="97"/>
-      <c r="R53" s="97"/>
-      <c r="S53" s="97"/>
-      <c r="T53" s="97"/>
-      <c r="U53" s="97"/>
-      <c r="V53" s="97"/>
-      <c r="W53" s="97"/>
-      <c r="X53" s="129" t="s">
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="70"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
+      <c r="S51" s="70"/>
+      <c r="T51" s="70"/>
+      <c r="U51" s="70"/>
+      <c r="V51" s="70"/>
+      <c r="W51" s="70"/>
+      <c r="X51" s="106"/>
+      <c r="Y51" s="98"/>
+      <c r="Z51" s="98"/>
+    </row>
+    <row r="52" spans="3:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C52" s="54"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
+      <c r="T52" s="70"/>
+      <c r="U52" s="70"/>
+      <c r="V52" s="70"/>
+      <c r="W52" s="70"/>
+      <c r="X52" s="106"/>
+      <c r="Y52" s="98"/>
+      <c r="Z52" s="98"/>
+    </row>
+    <row r="53" spans="3:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C53" s="54"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="70"/>
+      <c r="W53" s="70"/>
+      <c r="X53" s="107" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C54" s="63"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="97"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="97"/>
-      <c r="Q54" s="97"/>
-      <c r="R54" s="97"/>
-      <c r="S54" s="97"/>
-      <c r="T54" s="97"/>
-      <c r="U54" s="97"/>
-      <c r="V54" s="97"/>
-      <c r="W54" s="97"/>
-      <c r="X54" s="129"/>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C55" s="63"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="97"/>
-      <c r="L55" s="97"/>
-      <c r="M55" s="97"/>
-      <c r="N55" s="97"/>
-      <c r="O55" s="97"/>
-      <c r="P55" s="97"/>
-      <c r="Q55" s="97"/>
-      <c r="R55" s="97"/>
-      <c r="S55" s="97"/>
-      <c r="T55" s="97"/>
-      <c r="U55" s="97"/>
-      <c r="V55" s="97"/>
-      <c r="W55" s="97"/>
-      <c r="X55" s="129"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C56" s="63"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
-      <c r="M56" s="97"/>
-      <c r="N56" s="97"/>
-      <c r="O56" s="97"/>
-      <c r="P56" s="97"/>
-      <c r="Q56" s="97"/>
-      <c r="R56" s="97"/>
-      <c r="S56" s="97"/>
-      <c r="T56" s="97"/>
-      <c r="U56" s="97"/>
-      <c r="V56" s="97"/>
-      <c r="W56" s="97"/>
-      <c r="X56" s="129"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C57" s="63"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="97"/>
-      <c r="L57" s="97"/>
-      <c r="M57" s="97"/>
-      <c r="N57" s="97"/>
-      <c r="O57" s="97"/>
-      <c r="P57" s="97"/>
-      <c r="Q57" s="97"/>
-      <c r="R57" s="97"/>
-      <c r="S57" s="97"/>
-      <c r="T57" s="97"/>
-      <c r="U57" s="97"/>
-      <c r="V57" s="97"/>
-      <c r="W57" s="97"/>
-      <c r="X57" s="129"/>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C58" s="63"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="97"/>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="97"/>
-      <c r="P58" s="97"/>
-      <c r="Q58" s="97"/>
-      <c r="R58" s="97"/>
-      <c r="S58" s="97"/>
-      <c r="T58" s="97"/>
-      <c r="U58" s="97"/>
-      <c r="V58" s="97"/>
-      <c r="W58" s="97"/>
-      <c r="X58" s="129"/>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="97"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="97"/>
-      <c r="L59" s="97"/>
-      <c r="M59" s="97"/>
-      <c r="N59" s="97"/>
-      <c r="O59" s="97"/>
-      <c r="P59" s="97"/>
-      <c r="Q59" s="97"/>
-      <c r="R59" s="97"/>
-      <c r="S59" s="97"/>
-      <c r="T59" s="97"/>
-      <c r="U59" s="97"/>
-      <c r="V59" s="97"/>
-      <c r="W59" s="97"/>
-      <c r="X59" s="129"/>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="97"/>
-      <c r="M60" s="97"/>
-      <c r="N60" s="97"/>
-      <c r="O60" s="97"/>
-      <c r="P60" s="97"/>
-      <c r="Q60" s="97"/>
-      <c r="R60" s="97"/>
-      <c r="S60" s="97"/>
-      <c r="T60" s="97"/>
-      <c r="U60" s="97"/>
-      <c r="V60" s="97"/>
-      <c r="W60" s="97"/>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="97"/>
-      <c r="M61" s="97"/>
-      <c r="N61" s="97"/>
-      <c r="O61" s="97"/>
-      <c r="P61" s="97"/>
-      <c r="Q61" s="97"/>
-      <c r="R61" s="97"/>
-      <c r="S61" s="97"/>
-      <c r="T61" s="97"/>
-      <c r="U61" s="97"/>
-      <c r="V61" s="97"/>
-      <c r="W61" s="97"/>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
-      <c r="M62" s="97"/>
-      <c r="N62" s="97"/>
-      <c r="O62" s="97"/>
-      <c r="P62" s="97"/>
-      <c r="Q62" s="97"/>
-      <c r="R62" s="97"/>
-      <c r="S62" s="97"/>
-      <c r="T62" s="97"/>
-      <c r="U62" s="97"/>
-      <c r="V62" s="97"/>
-      <c r="W62" s="97"/>
+    <row r="54" spans="3:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C54" s="54"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="107"/>
+    </row>
+    <row r="55" spans="3:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C55" s="54"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="70"/>
+      <c r="S55" s="70"/>
+      <c r="T55" s="70"/>
+      <c r="U55" s="70"/>
+      <c r="V55" s="70"/>
+      <c r="W55" s="70"/>
+      <c r="X55" s="107"/>
+    </row>
+    <row r="56" spans="3:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C56" s="54"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="70"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="70"/>
+      <c r="S56" s="70"/>
+      <c r="T56" s="70"/>
+      <c r="U56" s="70"/>
+      <c r="V56" s="70"/>
+      <c r="W56" s="70"/>
+      <c r="X56" s="107"/>
+    </row>
+    <row r="57" spans="3:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C57" s="54"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
+      <c r="T57" s="70"/>
+      <c r="U57" s="70"/>
+      <c r="V57" s="70"/>
+      <c r="W57" s="70"/>
+      <c r="X57" s="107"/>
+    </row>
+    <row r="58" spans="3:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="C58" s="54"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="70"/>
+      <c r="O58" s="70"/>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="70"/>
+      <c r="R58" s="70"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="70"/>
+      <c r="U58" s="70"/>
+      <c r="V58" s="70"/>
+      <c r="W58" s="70"/>
+      <c r="X58" s="107"/>
+    </row>
+    <row r="59" spans="3:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="70"/>
+      <c r="N59" s="70"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="70"/>
+      <c r="R59" s="70"/>
+      <c r="S59" s="70"/>
+      <c r="T59" s="70"/>
+      <c r="U59" s="70"/>
+      <c r="V59" s="70"/>
+      <c r="W59" s="70"/>
+      <c r="X59" s="107"/>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="70"/>
+      <c r="O60" s="70"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="70"/>
+      <c r="R60" s="70"/>
+      <c r="S60" s="70"/>
+      <c r="T60" s="70"/>
+      <c r="U60" s="70"/>
+      <c r="V60" s="70"/>
+      <c r="W60" s="70"/>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="70"/>
+      <c r="R61" s="70"/>
+      <c r="S61" s="70"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="70"/>
+      <c r="V61" s="70"/>
+      <c r="W61" s="70"/>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="70"/>
+      <c r="N62" s="70"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="70"/>
+      <c r="Q62" s="70"/>
+      <c r="R62" s="70"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="70"/>
+      <c r="W62" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="X44:X52"/>
-    <mergeCell ref="X53:X59"/>
-    <mergeCell ref="X23:X26"/>
-    <mergeCell ref="X27:X33"/>
-    <mergeCell ref="X34:X42"/>
+  <mergeCells count="30">
+    <mergeCell ref="Y44:Y52"/>
+    <mergeCell ref="Y4:Y11"/>
+    <mergeCell ref="Y12:Y18"/>
+    <mergeCell ref="Y19:Y26"/>
+    <mergeCell ref="Y27:Y33"/>
+    <mergeCell ref="Y34:Y42"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="X8:X11"/>
     <mergeCell ref="X12:X18"/>
     <mergeCell ref="X19:X22"/>
@@ -4686,17 +5455,17 @@
     <mergeCell ref="O1:W1"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Y44:Y52"/>
-    <mergeCell ref="Y4:Y11"/>
-    <mergeCell ref="Y12:Y18"/>
-    <mergeCell ref="Y19:Y26"/>
-    <mergeCell ref="Y27:Y33"/>
-    <mergeCell ref="Y34:Y42"/>
+    <mergeCell ref="X44:X52"/>
+    <mergeCell ref="X53:X59"/>
+    <mergeCell ref="X23:X26"/>
+    <mergeCell ref="X27:X33"/>
+    <mergeCell ref="X34:X42"/>
+    <mergeCell ref="Z44:Z52"/>
+    <mergeCell ref="Z4:Z11"/>
+    <mergeCell ref="Z12:Z18"/>
+    <mergeCell ref="Z19:Z26"/>
+    <mergeCell ref="Z27:Z33"/>
+    <mergeCell ref="Z34:Z42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
